--- a/data/trans_dic/P26-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P26-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2544912442850157</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.08724639596545279</v>
+        <v>0.08724639596545281</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3743041023255719</v>
@@ -697,7 +697,7 @@
         <v>0.2636687797013312</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.08974380844250661</v>
+        <v>0.08974380844250658</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2475673971918107</v>
+        <v>0.2446704320717694</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2416238166465139</v>
+        <v>0.2430389096422802</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2190118692717153</v>
+        <v>0.2208193512887091</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06210764873322698</v>
+        <v>0.0636840321353026</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3326587075963311</v>
+        <v>0.3384429879872985</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3402432520651362</v>
+        <v>0.3384273534889409</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2410288197837582</v>
+        <v>0.236887504777497</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07435672453355216</v>
+        <v>0.07490033734277568</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3038541120578836</v>
+        <v>0.303096269810673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.300144646937086</v>
+        <v>0.3012469379380094</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2401843647372604</v>
+        <v>0.2391408192344708</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07415936694261215</v>
+        <v>0.07469245650316711</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3163302419106448</v>
+        <v>0.3162452826594708</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3151486109798373</v>
+        <v>0.3120874689385305</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2926677432648283</v>
+        <v>0.2943812580157812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1158953858117765</v>
+        <v>0.1213213665341401</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4152178294458771</v>
+        <v>0.4130221491906101</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.419305404390339</v>
+        <v>0.4154675928760795</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3108492367419498</v>
+        <v>0.3071690602059304</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1128087517819055</v>
+        <v>0.1135037617414526</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.354026044356144</v>
+        <v>0.3550339947413971</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3531716760036125</v>
+        <v>0.3545655405420116</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2899951641230725</v>
+        <v>0.2895509638953274</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1099639553359399</v>
+        <v>0.1086866741025312</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2594072645357988</v>
+        <v>0.258659185995352</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2986428198835827</v>
+        <v>0.2948283919905299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2099354769232296</v>
+        <v>0.2118165402912517</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0712197338520959</v>
+        <v>0.07139199054076897</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3441567187168711</v>
+        <v>0.3456766015380306</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3679046125870848</v>
+        <v>0.3661731881144131</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2261269177620935</v>
+        <v>0.2272594770265758</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1205801215404157</v>
+        <v>0.1197922853296675</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3106882268707755</v>
+        <v>0.3097510346190048</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3417243541359148</v>
+        <v>0.3417709829001981</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2251918168726526</v>
+        <v>0.2263189188710686</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1029506874243081</v>
+        <v>0.1012570328072527</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3224297952518488</v>
+        <v>0.3207402370373852</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3579216914446561</v>
+        <v>0.3560373475316237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2661693717809162</v>
+        <v>0.2676363754035572</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1187018368218843</v>
+        <v>0.1205170441154743</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4107981036586724</v>
+        <v>0.4121367217759976</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.433363416085508</v>
+        <v>0.4327973199865344</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2821451772338586</v>
+        <v>0.2827625255228869</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1618582007939452</v>
+        <v>0.1622372841132295</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3573292963464042</v>
+        <v>0.3565972903684643</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3878143359678384</v>
+        <v>0.3870002609878565</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2639522622305024</v>
+        <v>0.2669418887563123</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1328521180630554</v>
+        <v>0.1345301497044182</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2634583999951715</v>
+        <v>0.2566682039043742</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.295031286588246</v>
+        <v>0.2938560158989473</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2485820058948414</v>
+        <v>0.2455257381050269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08741978989929762</v>
+        <v>0.08641010170199093</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3196704219496909</v>
+        <v>0.3203914770889021</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3732864038402157</v>
+        <v>0.3727027869636004</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3134180857863964</v>
+        <v>0.3112831436169738</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.13493237821593</v>
+        <v>0.1370342119937536</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3024245135114627</v>
+        <v>0.3013508958198514</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3465229646093076</v>
+        <v>0.344383873683244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2893950718652789</v>
+        <v>0.2899960818774672</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1181348550108401</v>
+        <v>0.1188901855412264</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3431719074436734</v>
+        <v>0.3366797330337503</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3660804051011932</v>
+        <v>0.3682326148469818</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3174587286506346</v>
+        <v>0.3196262256488956</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1478703694248714</v>
+        <v>0.1507011079853944</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3982169261079488</v>
+        <v>0.3955212220745815</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4476330314417561</v>
+        <v>0.4468669652971746</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3861710148667507</v>
+        <v>0.3837763230172521</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1891264335536731</v>
+        <v>0.1881466337772182</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3552455640075978</v>
+        <v>0.354723679125469</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4007125885705197</v>
+        <v>0.3981340709993457</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3379976065670249</v>
+        <v>0.3399882548507871</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1579113345309298</v>
+        <v>0.1592487298212477</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2180690166768977</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1468290536347398</v>
+        <v>0.1468290536347399</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.3271306166447446</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2480321955795738</v>
+        <v>0.2518680608087055</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3371113651310816</v>
+        <v>0.3356226952962241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2137410176484183</v>
+        <v>0.2149539958517034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1284077920677076</v>
+        <v>0.1302857745763735</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3383066240722793</v>
+        <v>0.3377843834074363</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.333220837642344</v>
+        <v>0.3297313932961462</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1896373845560054</v>
+        <v>0.1911851169845878</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1275030936180629</v>
+        <v>0.1269396595010137</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3057672446245435</v>
+        <v>0.3062243983356651</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.345181368053114</v>
+        <v>0.3451371406966092</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2104253753879947</v>
+        <v>0.2106223557939373</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1350413988505187</v>
+        <v>0.1336171626429192</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3067610642570284</v>
+        <v>0.3126240474683004</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4046414399110961</v>
+        <v>0.4020391554841905</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2739938624495859</v>
+        <v>0.2756662349699144</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.183684598149699</v>
+        <v>0.1821222410523938</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4013679531594401</v>
+        <v>0.4023360122157176</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.397594238504517</v>
+        <v>0.392869948653434</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2490950530245707</v>
+        <v>0.2474252456019211</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1695600255172043</v>
+        <v>0.1675524681153935</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3497014358505509</v>
+        <v>0.34898212814188</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3912373437371064</v>
+        <v>0.3896472245760463</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.249973123865873</v>
+        <v>0.2513371286482673</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1682331326724287</v>
+        <v>0.1683892917983172</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2705848050544009</v>
+        <v>0.2707574411682034</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3106059583919552</v>
+        <v>0.313791861544638</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2374560259055203</v>
+        <v>0.2358948852814398</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09908772796387853</v>
+        <v>0.1011531224447863</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3528210550823786</v>
+        <v>0.3534214360958988</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3702195277666105</v>
+        <v>0.3691918211948201</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2521939674098385</v>
+        <v>0.252025069490217</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1257563462065384</v>
+        <v>0.1257389217908425</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3175317697436003</v>
+        <v>0.3175145461258579</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3452798315826338</v>
+        <v>0.3461827164662653</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2491402588457756</v>
+        <v>0.2492494024021447</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.118358105810615</v>
+        <v>0.1181300526318954</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3034906767651023</v>
+        <v>0.3052467026159444</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3447125344935202</v>
+        <v>0.3455722385912038</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2694897058107504</v>
+        <v>0.2681552675323045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1272732680287439</v>
+        <v>0.1284429699255716</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3886787421808803</v>
+        <v>0.3874104871631546</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4052755009581617</v>
+        <v>0.4051984659763086</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2843944411464815</v>
+        <v>0.2819551037244463</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1485644074627164</v>
+        <v>0.1487716353345173</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3411137268497172</v>
+        <v>0.3410233680397469</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3707399818512888</v>
+        <v>0.3700936182335494</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2714448013132445</v>
+        <v>0.2720735874534042</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1359317860020401</v>
+        <v>0.135930775314454</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>159139</v>
+        <v>157277</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>164536</v>
+        <v>165500</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>134046</v>
+        <v>135152</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>37457</v>
+        <v>38408</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>207702</v>
+        <v>211314</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>222363</v>
+        <v>221176</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>150486</v>
+        <v>147901</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>48669</v>
+        <v>49025</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>385038</v>
+        <v>384078</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>400542</v>
+        <v>402013</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>296963</v>
+        <v>295673</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>93265</v>
+        <v>93936</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>203340</v>
+        <v>203286</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>214603</v>
+        <v>212519</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>179126</v>
+        <v>180175</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>69897</v>
+        <v>73169</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>259250</v>
+        <v>257879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>274033</v>
+        <v>271525</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>194079</v>
+        <v>191781</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>73837</v>
+        <v>74292</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>448615</v>
+        <v>449892</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>471307</v>
+        <v>473167</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>358549</v>
+        <v>358000</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>138295</v>
+        <v>136688</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>235343</v>
+        <v>234664</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>293095</v>
+        <v>289351</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>202700</v>
+        <v>204516</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>68293</v>
+        <v>68459</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>306298</v>
+        <v>307651</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>365081</v>
+        <v>363363</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>221501</v>
+        <v>222610</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>117991</v>
+        <v>117220</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>558378</v>
+        <v>556694</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>674477</v>
+        <v>674569</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>438016</v>
+        <v>440208</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>199460</v>
+        <v>196179</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>292519</v>
+        <v>290986</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>351273</v>
+        <v>349423</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>256996</v>
+        <v>258413</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>113824</v>
+        <v>115565</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>365609</v>
+        <v>366800</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>430037</v>
+        <v>429476</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>276373</v>
+        <v>276978</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>158382</v>
+        <v>158753</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>642203</v>
+        <v>640887</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>765447</v>
+        <v>763841</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>513408</v>
+        <v>519223</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>257392</v>
+        <v>260644</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>167195</v>
+        <v>162885</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>211499</v>
+        <v>210657</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>179783</v>
+        <v>177573</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>63621</v>
+        <v>62886</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>199311</v>
+        <v>199761</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>273572</v>
+        <v>273144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>229686</v>
+        <v>228121</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>101805</v>
+        <v>103390</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>380481</v>
+        <v>379131</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>502369</v>
+        <v>499268</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>421382</v>
+        <v>422257</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>175105</v>
+        <v>176225</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>217782</v>
+        <v>213662</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>262432</v>
+        <v>263975</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>229598</v>
+        <v>231165</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>107615</v>
+        <v>109675</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>248284</v>
+        <v>246604</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>328058</v>
+        <v>327497</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>283002</v>
+        <v>281247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>142693</v>
+        <v>141954</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>446936</v>
+        <v>446279</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>580930</v>
+        <v>577192</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>492151</v>
+        <v>495049</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>234064</v>
+        <v>236046</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>215096</v>
+        <v>218422</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>303814</v>
+        <v>302472</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>181706</v>
+        <v>182737</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>116773</v>
+        <v>118481</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>322924</v>
+        <v>322426</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>327908</v>
+        <v>324474</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>179511</v>
+        <v>180976</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>130277</v>
+        <v>129701</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>557028</v>
+        <v>557861</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>650764</v>
+        <v>650680</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>378076</v>
+        <v>378430</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>260785</v>
+        <v>258035</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>266026</v>
+        <v>271110</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>364673</v>
+        <v>362328</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>232928</v>
+        <v>234350</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>167042</v>
+        <v>165621</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>383118</v>
+        <v>384042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>391255</v>
+        <v>386606</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>235794</v>
+        <v>234213</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>173249</v>
+        <v>171198</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>637065</v>
+        <v>635754</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>737592</v>
+        <v>734595</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>449133</v>
+        <v>451583</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>324884</v>
+        <v>325185</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>825789</v>
+        <v>826315</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1018936</v>
+        <v>1029387</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>748210</v>
+        <v>743291</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>316999</v>
+        <v>323606</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1091059</v>
+        <v>1092916</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1244971</v>
+        <v>1241515</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>828038</v>
+        <v>827483</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>428741</v>
+        <v>428682</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1950996</v>
+        <v>1950890</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2293787</v>
+        <v>2299785</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1603038</v>
+        <v>1603740</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>782166</v>
+        <v>780659</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>926213</v>
+        <v>931572</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1130822</v>
+        <v>1133642</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>849146</v>
+        <v>844942</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>407169</v>
+        <v>410911</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1201945</v>
+        <v>1198023</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1362857</v>
+        <v>1362598</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>933763</v>
+        <v>925754</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>506501</v>
+        <v>507207</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2095889</v>
+        <v>2095334</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2462926</v>
+        <v>2458632</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1746552</v>
+        <v>1750597</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>898302</v>
+        <v>898295</v>
       </c>
     </row>
     <row r="24">
